--- a/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_捷豹.xlsx
+++ b/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_捷豹.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="30520" yWindow="3680" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.3新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -388,6 +388,24 @@
   <si>
     <t>rentertp</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改账单已结清的租约，下期收租日显示了首期2100-12-30</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>papp</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1870</t>
   </si>
 </sst>
 </file>
@@ -800,7 +818,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +851,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,7 +1186,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1188,6 +1209,7 @@
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1545,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1860,7 +1882,9 @@
       <c r="P5" s="67"/>
       <c r="Q5" s="58"/>
       <c r="R5" s="70"/>
-      <c r="S5" s="90"/>
+      <c r="S5" s="90" t="s">
+        <v>94</v>
+      </c>
       <c r="T5" s="77"/>
       <c r="U5" s="78"/>
       <c r="V5" s="73"/>
@@ -1875,25 +1899,49 @@
         <v>23</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
+        <v>78</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="58">
+        <v>42807</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="58">
+        <v>42807</v>
+      </c>
       <c r="K6" s="57"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="L6" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="57" t="s">
+        <v>75</v>
+      </c>
       <c r="P6" s="67"/>
       <c r="Q6" s="58"/>
       <c r="R6" s="70"/>
       <c r="S6" s="79"/>
-      <c r="T6" s="76"/>
+      <c r="T6" s="76">
+        <v>9772</v>
+      </c>
       <c r="U6" s="64"/>
       <c r="V6" s="73"/>
       <c r="W6" s="74"/>
@@ -5685,7 +5733,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
